--- a/zadaci/03/pywo_some_data.xlsx
+++ b/zadaci/03/pywo_some_data.xlsx
@@ -11,171 +11,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>Pon</t>
-  </si>
-  <si>
-    <t>Uto</t>
-  </si>
-  <si>
-    <t>Sri</t>
-  </si>
-  <si>
-    <t>Pet</t>
+    <t>PyWo 2015</t>
   </si>
   <si>
     <t xml:space="preserve">Josip Mlakar, </t>
   </si>
   <si>
-    <t xml:space="preserve">jmlakar@foi.hr, </t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elvis Popović, </t>
-  </si>
-  <si>
-    <t>elvpopovi@foi.hr</t>
   </si>
   <si>
     <t xml:space="preserve">Vladimir Milašinović, </t>
   </si>
   <si>
-    <t>vmilasin@foi.hr</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Filip Rafajec, </t>
-  </si>
-  <si>
-    <t>filip.rafajec@foi.hr</t>
   </si>
   <si>
     <t xml:space="preserve">Matej Gucek, </t>
   </si>
   <si>
-    <t>matgucek@foi.hr</t>
-  </si>
-  <si>
-    <t>ispit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jura Šolja, </t>
-  </si>
-  <si>
-    <t>jursolja@foi.hr</t>
   </si>
   <si>
     <t xml:space="preserve">Gabrijela Grgača, </t>
   </si>
   <si>
-    <t>ggrgaca@foi.hr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stjepan Rakarec, </t>
-  </si>
-  <si>
-    <t>stjrakare@foi.hr</t>
   </si>
   <si>
     <t xml:space="preserve">Davorin Špičko, </t>
   </si>
   <si>
-    <t>daspicko@foi.hr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Milan Pavlović, </t>
-  </si>
-  <si>
-    <t>mpavlovi2@foi.hr</t>
   </si>
   <si>
     <t xml:space="preserve">Senko Pušec, </t>
   </si>
   <si>
-    <t>spusec@foi.hr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Filip Aleksić, </t>
-  </si>
-  <si>
-    <t>filaleksi@foi.hr</t>
   </si>
   <si>
     <t xml:space="preserve">Roman Tomašković, </t>
   </si>
   <si>
-    <t>romtomask@foi.hr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peđa Čačić, </t>
-  </si>
-  <si>
-    <t>pcacic0@foi.hr</t>
   </si>
   <si>
     <t>Saša Poslončec,</t>
   </si>
   <si>
-    <t>sasposlon@foi.hr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mislav Zebić, </t>
-  </si>
-  <si>
-    <t>miszebic@foi.hr</t>
   </si>
   <si>
     <t>Ian Žonja,</t>
   </si>
   <si>
-    <t>ianzonja@foi.hr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tomislav Cundić, </t>
-  </si>
-  <si>
-    <t>tcundic@foi.hr</t>
   </si>
   <si>
     <t>Matija Kaniški,</t>
   </si>
   <si>
-    <t>makaniski@foi.hr</t>
-  </si>
-  <si>
     <t>Petar Šestak,</t>
-  </si>
-  <si>
-    <t>petsestak3@foi.hr</t>
   </si>
   <si>
     <t>Ivana Završki,</t>
   </si>
   <si>
-    <t>izavrski@foi.hr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vedran Vađunec, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vvadjune@foi.hr </t>
   </si>
   <si>
     <t xml:space="preserve">Matea Bodulušić, </t>
   </si>
   <si>
-    <t>matbodulu@foi.hr</t>
-  </si>
-  <si>
     <t>Andrea Danzante,</t>
-  </si>
-  <si>
-    <t>anddanzan@foi.hr</t>
   </si>
 </sst>
 </file>
@@ -273,20 +183,14 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="H1" s="3"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -308,411 +212,219 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26">
       <c r="D26" s="6"/>
